--- a/plots/countries/plot data/Latvia.xlsx
+++ b/plots/countries/plot data/Latvia.xlsx
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>3.03718674834636</v>
+        <v>3.03719275004904</v>
       </c>
     </row>
     <row r="8">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-12.3900862137738</v>
+        <v>-12.5221336856325</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>0.80503180428475</v>
+        <v>0.81160468528475</v>
       </c>
     </row>
     <row r="11">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>2.8464796523524</v>
+        <v>2.84648553667114</v>
       </c>
     </row>
     <row r="17">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-12.810668305966</v>
+        <v>-12.9309021213903</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>0.837759143886216</v>
+        <v>0.844173752310216</v>
       </c>
     </row>
     <row r="20">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>2.53589763632433</v>
+        <v>2.53590295934253</v>
       </c>
     </row>
     <row r="26">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-13.1988390242514</v>
+        <v>-13.3191047918286</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>0.793145438331511</v>
+        <v>0.799213634059511</v>
       </c>
     </row>
     <row r="29">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>2.32728459283788</v>
+        <v>2.3272897123513</v>
       </c>
     </row>
     <row r="35">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-13.0758898538346</v>
+        <v>-13.1962156896909</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>0.708911689093778</v>
+        <v>0.714185717965778</v>
       </c>
     </row>
     <row r="38">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>2.20655831290165</v>
+        <v>2.20656329505361</v>
       </c>
     </row>
     <row r="44">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-15.9758107794042</v>
+        <v>-16.0961490512006</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>0.693296119710227</v>
+        <v>0.698343561802226</v>
       </c>
     </row>
     <row r="47">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>2.10372334551891</v>
+        <v>2.1037281603584</v>
       </c>
     </row>
     <row r="53">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-14.8382616141725</v>
+        <v>-14.9586124502669</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>0.702499167440764</v>
+        <v>0.707175682248764</v>
       </c>
     </row>
     <row r="56">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>1.88223449667142</v>
+        <v>1.88223449667141</v>
       </c>
     </row>
     <row r="60">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>2.06866473871685</v>
+        <v>2.06866935902626</v>
       </c>
     </row>
     <row r="62">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-15.0045205268814</v>
+        <v>-15.173930850855</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>0.707028590590799</v>
+        <v>0.711485296186799</v>
       </c>
     </row>
     <row r="65">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>2.06092600907896</v>
+        <v>2.0609306559895</v>
       </c>
     </row>
     <row r="71">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-13.2357857870049</v>
+        <v>-13.4060414395021</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>0.724026585174459</v>
+        <v>0.729994827370458</v>
       </c>
     </row>
     <row r="74">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>2.03361549758295</v>
+        <v>2.03361998489243</v>
       </c>
     </row>
     <row r="80">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-12.2861111315862</v>
+        <v>-12.457225564981</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>0.735312391779154</v>
+        <v>0.738808504203154</v>
       </c>
     </row>
     <row r="83">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>1.44370546983682</v>
+        <v>1.44370546983681</v>
       </c>
     </row>
     <row r="87">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>1.99801346851767</v>
+        <v>1.99801767062195</v>
       </c>
     </row>
     <row r="89">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-8.6088068037061</v>
+        <v>-8.78076462415575</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>0.744571940629203</v>
+        <v>0.748492249917203</v>
       </c>
     </row>
     <row r="92">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>2.21315679736369</v>
+        <v>2.21316147017483</v>
       </c>
     </row>
     <row r="98">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-11.8511258281572</v>
+        <v>-12.0243191518954</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>0.764588238304024</v>
+        <v>0.767908362356024</v>
       </c>
     </row>
     <row r="101">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>2.61406852267855</v>
+        <v>2.61407429968376</v>
       </c>
     </row>
     <row r="107">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-12.3506524506102</v>
+        <v>-13.0390939241455</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>0.78648736380636</v>
+        <v>0.790991801148397</v>
       </c>
     </row>
     <row r="110">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>2.69283854444413</v>
+        <v>2.69284420501352</v>
       </c>
     </row>
     <row r="116">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-10.6223287219415</v>
+        <v>-11.3058755494185</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>0.762397062558566</v>
+        <v>0.766305323978566</v>
       </c>
     </row>
     <row r="119">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>2.84129792741624</v>
+        <v>2.84130348122007</v>
       </c>
     </row>
     <row r="125">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-10.1965911701227</v>
+        <v>-10.8840121378097</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>0.727942077993593</v>
+        <v>0.727943154313593</v>
       </c>
     </row>
     <row r="128">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>1.15942203478051</v>
+        <v>1.15942203478052</v>
       </c>
     </row>
     <row r="132">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>2.98258667375144</v>
+        <v>2.98259200562043</v>
       </c>
     </row>
     <row r="134">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-6.47164875644383</v>
+        <v>-7.16296337664764</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>0.692686331211712</v>
+        <v>0.674665175051712</v>
       </c>
     </row>
     <row r="137">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>3.10956603813965</v>
+        <v>3.11054184239706</v>
       </c>
     </row>
     <row r="143">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-5.90533127022155</v>
+        <v>-6.600523336367</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>0.686510753840181</v>
+        <v>0.68510406901917</v>
       </c>
     </row>
     <row r="146">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>3.4241230499939</v>
+        <v>3.42413026513079</v>
       </c>
     </row>
     <row r="152">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-6.67465152721857</v>
+        <v>-7.37372274955464</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>0.67527866471852</v>
+        <v>0.674113203010327</v>
       </c>
     </row>
     <row r="155">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>3.87092054008669</v>
+        <v>3.87092833629818</v>
       </c>
     </row>
     <row r="161">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-6.23738661216391</v>
+        <v>-6.94033765634609</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>0.685139116653435</v>
+        <v>0.684243067413154</v>
       </c>
     </row>
     <row r="164">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>3.65564746981834</v>
+        <v>3.65565482710582</v>
       </c>
     </row>
     <row r="170">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-6.6116987792102</v>
+        <v>-7.31853220130505</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>0.715658585379076</v>
+        <v>0.716069016244485</v>
       </c>
     </row>
     <row r="173">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>0.905849967919426</v>
+        <v>0.905849967919427</v>
       </c>
     </row>
     <row r="177">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>3.20399854660404</v>
+        <v>3.20400421859016</v>
       </c>
     </row>
     <row r="179">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-3.69606877281606</v>
+        <v>-3.87133929144171</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>0.722111538902937</v>
+        <v>0.722540642400783</v>
       </c>
     </row>
     <row r="182">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>3.27568462933273</v>
+        <v>3.2757115836744</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>0.751598448390748</v>
+        <v>0.751598622779335</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-1.89476955920266</v>
+        <v>-2.07383865952527</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>0.717264104953049</v>
+        <v>0.717829242961072</v>
       </c>
     </row>
     <row r="191">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>2.91279102325183</v>
+        <v>2.91280711512414</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>0.848264402837668</v>
+        <v>0.845664574164923</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-2.27529448534631</v>
+        <v>-2.45846382458364</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>0.686487299429765</v>
+        <v>0.685969204931934</v>
       </c>
     </row>
     <row r="200">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>2.80950888014798</v>
+        <v>2.80951826732997</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>0.905570650666488</v>
+        <v>0.905572216726443</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-3.61406441548047</v>
+        <v>-3.80132135686627</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>0.681269681317541</v>
+        <v>0.681711051391498</v>
       </c>
     </row>
     <row r="209">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>2.8453856831104</v>
+        <v>2.84525381124069</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>0.848292346650323</v>
+        <v>0.848294485649876</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-2.30533088138068</v>
+        <v>-2.49664474740251</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>0.662828455083268</v>
+        <v>0.665953881826914</v>
       </c>
     </row>
     <row r="218">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>2.96837460045211</v>
+        <v>2.96822839343419</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>0.862256587321492</v>
+        <v>0.862211739565675</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>1.60072208211083</v>
+        <v>1.50723540363049</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>0.656536343795187</v>
+        <v>0.656263986725009</v>
       </c>
     </row>
     <row r="227">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>3.14818566216728</v>
+        <v>3.14823095021576</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>0.788375178936148</v>
+        <v>0.788222403465623</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>0.362903876565255</v>
+        <v>0.268339580748552</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>0.619232784174865</v>
+        <v>0.619215314340685</v>
       </c>
     </row>
     <row r="236">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>3.16774856858519</v>
+        <v>3.16783553821811</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>0.687409019333305</v>
+        <v>0.687340461695747</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-1.4486971203927</v>
+        <v>-1.54311925151958</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>0.630198010336324</v>
+        <v>0.624815638271526</v>
       </c>
     </row>
     <row r="245">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>3.3205344814604</v>
+        <v>3.32062537013061</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>0.764398902252215</v>
+        <v>0.764258009793797</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-2.89071588786373</v>
+        <v>-2.98500696440337</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>0.582524821309004</v>
+        <v>0.582858896356984</v>
       </c>
     </row>
     <row r="254">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>3.34636649188071</v>
+        <v>3.33242750836082</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>0.889909092862698</v>
+        <v>0.889896723626334</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-0.387910106466424</v>
+        <v>-0.48205295728216</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>0.589585663470178</v>
+        <v>0.58986053646053</v>
       </c>
     </row>
     <row r="263">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>3.32873745988145</v>
+        <v>3.31399340095059</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>0.887480450403279</v>
+        <v>0.887881534546951</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-1.96851327306976</v>
+        <v>-2.20927463544776</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>0.580081902163747</v>
+        <v>0.580588023638171</v>
       </c>
     </row>
     <row r="272">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>1.55049764474155</v>
+        <v>1.55071091908133</v>
       </c>
     </row>
     <row r="274">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>0.658030200773994</v>
+        <v>0.658349519783669</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>1.36731605782014</v>
+        <v>1.36816735117927</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>3.10810845631183</v>
+        <v>3.10832924669273</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>0.865930478923343</v>
+        <v>0.866809604316267</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>0.758285588362733</v>
+        <v>0.529355738939979</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>0.578986197419309</v>
+        <v>0.579277357823</v>
       </c>
     </row>
     <row r="281">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>0.655600026923744</v>
+        <v>0.656664423622657</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>1.4366367926587</v>
+        <v>1.43748998601783</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>3.22571224662746</v>
+        <v>3.20456870956259</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>0.877143765030125</v>
+        <v>0.878123608162016</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>2.20166279803317</v>
+        <v>1.97822291332859</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>0.567099795956746</v>
+        <v>0.563706124196</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>2.25382771380915</v>
+        <v>2.25315370705915</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>1.57775422571383</v>
+        <v>1.57797691536289</v>
       </c>
     </row>
     <row r="292">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>0.601930401413847</v>
+        <v>0.602939940633595</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>0.999029409222055</v>
+        <v>1.00104933094999</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>3.1416996250989</v>
+        <v>3.12654397407619</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>0.858467942982688</v>
+        <v>0.860631673860476</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>4.94416419299798</v>
+        <v>5.70170122355651</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>0.588614156341792</v>
+        <v>0.585579299663</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>2.12798025666963</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1.5057873064654</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.102225181</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.643363992503666</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>1.00890826248333</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>3.13378420902464</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.867217648610264</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>4.62976221081213</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.579663102467</v>
       </c>
     </row>
   </sheetData>
